--- a/excel_reporting_templates/SecondaryMaterialContent-1.0.1-schema-reporting_template.xlsx
+++ b/excel_reporting_templates/SecondaryMaterialContent-1.0.1-schema-reporting_template.xlsx
@@ -487,7 +487,7 @@
     <col width="2.4" customWidth="1" min="1" max="1"/>
     <col width="21.6" customWidth="1" min="2" max="2"/>
     <col width="16.8" customWidth="1" min="3" max="3"/>
-    <col width="49.2" customWidth="1" min="4" max="4"/>
+    <col width="50" customWidth="1" min="4" max="4"/>
     <col width="50" customWidth="1" min="5" max="5"/>
     <col width="50" customWidth="1" min="6" max="6"/>
     <col width="50" customWidth="1" min="7" max="7"/>
@@ -535,137 +535,137 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>secondaryMaterialContent[0]_materialClass</t>
+          <t>secondaryMaterialContent[0]__materialClass</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>secondaryMaterialContent[0]_materialNameStandardized_referencedStandard</t>
+          <t>secondaryMaterialContent[0]__materialNameStandardized__referencedStandard</t>
         </is>
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
-          <t>secondaryMaterialContent[0]_materialNameStandardized_referencedStandardID</t>
+          <t>secondaryMaterialContent[0]__materialNameStandardized__referencedStandardID</t>
         </is>
       </c>
       <c r="G1" s="2" t="inlineStr">
         <is>
-          <t>secondaryMaterialContent[0]_materialNameStandardized_materialNameStandardizedValue</t>
+          <t>secondaryMaterialContent[0]__materialNameStandardized__materialNameStandardizedValue</t>
         </is>
       </c>
       <c r="H1" s="2" t="inlineStr">
         <is>
-          <t>secondaryMaterialContent[0]_unitOfMeasure_unitOfMeasureKey</t>
+          <t>secondaryMaterialContent[0]__unitOfMeasure__unitOfMeasureKey</t>
         </is>
       </c>
       <c r="I1" s="2" t="inlineStr">
         <is>
-          <t>secondaryMaterialContent[0]_unitOfMeasure_materialNetMass</t>
+          <t>secondaryMaterialContent[0]__unitOfMeasure__materialNetMass</t>
         </is>
       </c>
       <c r="J1" s="2" t="inlineStr">
         <is>
-          <t>secondaryMaterialContent[0]_unitOfMeasure_grossMaterialInputMass</t>
+          <t>secondaryMaterialContent[0]__unitOfMeasure__grossMaterialInputMass</t>
         </is>
       </c>
       <c r="K1" s="2" t="inlineStr">
         <is>
-          <t>secondaryMaterialContent[0]_bioBased_bioBasedClass</t>
+          <t>secondaryMaterialContent[0]__bioBased__bioBasedClass</t>
         </is>
       </c>
       <c r="L1" s="2" t="inlineStr">
         <is>
-          <t>secondaryMaterialContent[0]_bioBased_secondaryBioBased_isMassBalanced</t>
+          <t>secondaryMaterialContent[0]__bioBased__secondaryBioBased__isMassBalanced</t>
         </is>
       </c>
       <c r="M1" s="2" t="inlineStr">
         <is>
-          <t>secondaryMaterialContent[0]_bioBased_secondaryBioBased_percentageOfMaterialWeight</t>
+          <t>secondaryMaterialContent[0]__bioBased__secondaryBioBased__percentageOfMaterialWeight</t>
         </is>
       </c>
       <c r="N1" s="2" t="inlineStr">
         <is>
-          <t>secondaryMaterialContent[0]_bioBased_primaryBioBased_percentageOfMaterialWeight</t>
+          <t>secondaryMaterialContent[0]__bioBased__primaryBioBased__percentageOfMaterialWeight</t>
         </is>
       </c>
       <c r="O1" s="2" t="inlineStr">
         <is>
-          <t>secondaryMaterialContent[0]_inorganic_secondaryInorganic_preConsumer_mechanicalRecycling_percentageOfMaterialWeight</t>
+          <t>secondaryMaterialContent[0]__inorganic__secondaryInorganic__preConsumer__mechanicalRecycling__percentageOfMaterialWeight</t>
         </is>
       </c>
       <c r="P1" s="2" t="inlineStr">
         <is>
-          <t>secondaryMaterialContent[0]_inorganic_secondaryInorganic_preConsumer_mechanicalRecycling_isMassBalanced</t>
+          <t>secondaryMaterialContent[0]__inorganic__secondaryInorganic__preConsumer__mechanicalRecycling__isMassBalanced</t>
         </is>
       </c>
       <c r="Q1" s="2" t="inlineStr">
         <is>
-          <t>secondaryMaterialContent[0]_inorganic_secondaryInorganic_preConsumer_chemicalRecycling_isMassBalanced</t>
+          <t>secondaryMaterialContent[0]__inorganic__secondaryInorganic__preConsumer__chemicalRecycling__isMassBalanced</t>
         </is>
       </c>
       <c r="R1" s="2" t="inlineStr">
         <is>
-          <t>secondaryMaterialContent[0]_inorganic_secondaryInorganic_preConsumer_chemicalRecycling_percentageOfMaterialWeight</t>
+          <t>secondaryMaterialContent[0]__inorganic__secondaryInorganic__preConsumer__chemicalRecycling__percentageOfMaterialWeight</t>
         </is>
       </c>
       <c r="S1" s="2" t="inlineStr">
         <is>
-          <t>secondaryMaterialContent[0]_inorganic_secondaryInorganic_postConsumer_mechanicalRecycling_percentageOfMaterialWeight</t>
+          <t>secondaryMaterialContent[0]__inorganic__secondaryInorganic__postConsumer__mechanicalRecycling__percentageOfMaterialWeight</t>
         </is>
       </c>
       <c r="T1" s="2" t="inlineStr">
         <is>
-          <t>secondaryMaterialContent[0]_inorganic_secondaryInorganic_postConsumer_mechanicalRecycling_isMassBalanced</t>
+          <t>secondaryMaterialContent[0]__inorganic__secondaryInorganic__postConsumer__mechanicalRecycling__isMassBalanced</t>
         </is>
       </c>
       <c r="U1" s="2" t="inlineStr">
         <is>
-          <t>secondaryMaterialContent[0]_inorganic_secondaryInorganic_postConsumer_chemicalRecycling_isMassBalanced</t>
+          <t>secondaryMaterialContent[0]__inorganic__secondaryInorganic__postConsumer__chemicalRecycling__isMassBalanced</t>
         </is>
       </c>
       <c r="V1" s="2" t="inlineStr">
         <is>
-          <t>secondaryMaterialContent[0]_inorganic_secondaryInorganic_postConsumer_chemicalRecycling_percentageOfMaterialWeight</t>
+          <t>secondaryMaterialContent[0]__inorganic__secondaryInorganic__postConsumer__chemicalRecycling__percentageOfMaterialWeight</t>
         </is>
       </c>
       <c r="W1" s="2" t="inlineStr">
         <is>
-          <t>secondaryMaterialContent[0]_inorganic_secondaryInorganic_postConsumerAutomotive_chemicalRecycling_isMassBalanced</t>
+          <t>secondaryMaterialContent[0]__inorganic__secondaryInorganic__postConsumerAutomotive__chemicalRecycling__isMassBalanced</t>
         </is>
       </c>
       <c r="X1" s="2" t="inlineStr">
         <is>
-          <t>secondaryMaterialContent[0]_inorganic_secondaryInorganic_postConsumerAutomotive_chemicalRecycling_percentageOfMaterialWeight</t>
+          <t>secondaryMaterialContent[0]__inorganic__secondaryInorganic__postConsumerAutomotive__chemicalRecycling__percentageOfMaterialWeight</t>
         </is>
       </c>
       <c r="Y1" s="2" t="inlineStr">
         <is>
-          <t>secondaryMaterialContent[0]_inorganic_secondaryInorganic_postConsumerAutomotive_mechanicalRecycling_percentageOfMaterialWeight</t>
+          <t>secondaryMaterialContent[0]__inorganic__secondaryInorganic__postConsumerAutomotive__mechanicalRecycling__percentageOfMaterialWeight</t>
         </is>
       </c>
       <c r="Z1" s="2" t="inlineStr">
         <is>
-          <t>secondaryMaterialContent[0]_inorganic_secondaryInorganic_postConsumerAutomotive_mechanicalRecycling_isMassBalanced</t>
+          <t>secondaryMaterialContent[0]__inorganic__secondaryInorganic__postConsumerAutomotive__mechanicalRecycling__isMassBalanced</t>
         </is>
       </c>
       <c r="AA1" s="2" t="inlineStr">
         <is>
-          <t>secondaryMaterialContent[0]_inorganic_primaryInorganic_percentageOfMaterialWeight</t>
+          <t>secondaryMaterialContent[0]__inorganic__primaryInorganic__percentageOfMaterialWeight</t>
         </is>
       </c>
       <c r="AB1" s="2" t="inlineStr">
         <is>
-          <t>secondaryMaterialContent[0]_certificate[0]_certificateName</t>
+          <t>secondaryMaterialContent[0]__certificate[0]__certificateName</t>
         </is>
       </c>
       <c r="AC1" s="2" t="inlineStr">
         <is>
-          <t>secondaryMaterialContent[0]_certificate[0]_certificateLink</t>
+          <t>secondaryMaterialContent[0]__certificate[0]__certificateLink</t>
         </is>
       </c>
       <c r="AD1" s="3" t="inlineStr">
         <is>
-          <t>secondaryMaterialContent[0]_additionalInformation</t>
+          <t>secondaryMaterialContent[0]__additionalInformation</t>
         </is>
       </c>
       <c r="AE1" s="2" t="inlineStr">
@@ -719,7 +719,7 @@
     <row r="3" ht="30" customHeight="1">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>2. Columns highlighted in olive green are digital twin fields.</t>
+          <t>1. Columns highlighted in olive green are digital twin fields.</t>
         </is>
       </c>
       <c r="B3" s="5" t="n"/>
@@ -750,7 +750,7 @@
       </c>
       <c r="B5" s="7" t="inlineStr">
         <is>
-          <t>Digital Twin Field: id</t>
+          <t>Digital Twin Field Name: id</t>
         </is>
       </c>
       <c r="C5" s="7" t="n"/>
@@ -763,7 +763,7 @@
       </c>
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>Digital Twin Field: manufacturerPartId</t>
+          <t>Digital Twin Field Name: manufacturerPartId</t>
         </is>
       </c>
       <c r="C6" s="8" t="n"/>
@@ -776,7 +776,7 @@
       </c>
       <c r="B7" s="7" t="inlineStr">
         <is>
-          <t>Digital Twin Field: partInstanceId</t>
+          <t>Digital Twin Field Name: partInstanceId</t>
         </is>
       </c>
       <c r="C7" s="7" t="n"/>
@@ -784,7 +784,7 @@
     <row r="8">
       <c r="A8" s="8" t="inlineStr">
         <is>
-          <t>secondaryMaterialContent[0]_materialClass</t>
+          <t>secondaryMaterialContent[0]__materialClass</t>
         </is>
       </c>
       <c r="B8" s="8" t="inlineStr">
@@ -797,7 +797,7 @@
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>secondaryMaterialContent[0]_materialNameStandardized_referencedStandard</t>
+          <t>secondaryMaterialContent[0]__materialNameStandardized__referencedStandard</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -814,7 +814,7 @@
     <row r="10">
       <c r="A10" s="8" t="inlineStr">
         <is>
-          <t>secondaryMaterialContent[0]_materialNameStandardized_referencedStandardID</t>
+          <t>secondaryMaterialContent[0]__materialNameStandardized__referencedStandardID</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
@@ -827,7 +827,7 @@
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>secondaryMaterialContent[0]_materialNameStandardized_materialNameStandardizedValue</t>
+          <t>secondaryMaterialContent[0]__materialNameStandardized__materialNameStandardizedValue</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -840,7 +840,7 @@
     <row r="12">
       <c r="A12" s="8" t="inlineStr">
         <is>
-          <t>secondaryMaterialContent[0]_unitOfMeasure_unitOfMeasureKey</t>
+          <t>secondaryMaterialContent[0]__unitOfMeasure__unitOfMeasureKey</t>
         </is>
       </c>
       <c r="B12" s="8" t="inlineStr">
@@ -853,7 +853,7 @@
     <row r="13">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>secondaryMaterialContent[0]_unitOfMeasure_materialNetMass</t>
+          <t>secondaryMaterialContent[0]__unitOfMeasure__materialNetMass</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
@@ -866,7 +866,7 @@
     <row r="14">
       <c r="A14" s="8" t="inlineStr">
         <is>
-          <t>secondaryMaterialContent[0]_unitOfMeasure_grossMaterialInputMass</t>
+          <t>secondaryMaterialContent[0]__unitOfMeasure__grossMaterialInputMass</t>
         </is>
       </c>
       <c r="B14" s="8" t="inlineStr">
@@ -879,7 +879,7 @@
     <row r="15">
       <c r="A15" s="7" t="inlineStr">
         <is>
-          <t>secondaryMaterialContent[0]_bioBased_bioBasedClass</t>
+          <t>secondaryMaterialContent[0]__bioBased__bioBasedClass</t>
         </is>
       </c>
       <c r="B15" s="7" t="inlineStr">
@@ -896,7 +896,7 @@
     <row r="16">
       <c r="A16" s="8" t="inlineStr">
         <is>
-          <t>secondaryMaterialContent[0]_bioBased_secondaryBioBased_isMassBalanced</t>
+          <t>secondaryMaterialContent[0]__bioBased__secondaryBioBased__isMassBalanced</t>
         </is>
       </c>
       <c r="B16" s="8" t="inlineStr">
@@ -909,7 +909,7 @@
     <row r="17">
       <c r="A17" s="7" t="inlineStr">
         <is>
-          <t>secondaryMaterialContent[0]_bioBased_secondaryBioBased_percentageOfMaterialWeight</t>
+          <t>secondaryMaterialContent[0]__bioBased__secondaryBioBased__percentageOfMaterialWeight</t>
         </is>
       </c>
       <c r="B17" s="7" t="inlineStr">
@@ -922,7 +922,7 @@
     <row r="18">
       <c r="A18" s="8" t="inlineStr">
         <is>
-          <t>secondaryMaterialContent[0]_bioBased_primaryBioBased_percentageOfMaterialWeight</t>
+          <t>secondaryMaterialContent[0]__bioBased__primaryBioBased__percentageOfMaterialWeight</t>
         </is>
       </c>
       <c r="B18" s="8" t="inlineStr">
@@ -935,7 +935,7 @@
     <row r="19">
       <c r="A19" s="7" t="inlineStr">
         <is>
-          <t>secondaryMaterialContent[0]_inorganic_secondaryInorganic_preConsumer_mechanicalRecycling_percentageOfMaterialWeight</t>
+          <t>secondaryMaterialContent[0]__inorganic__secondaryInorganic__preConsumer__mechanicalRecycling__percentageOfMaterialWeight</t>
         </is>
       </c>
       <c r="B19" s="7" t="inlineStr">
@@ -948,7 +948,7 @@
     <row r="20">
       <c r="A20" s="8" t="inlineStr">
         <is>
-          <t>secondaryMaterialContent[0]_inorganic_secondaryInorganic_preConsumer_mechanicalRecycling_isMassBalanced</t>
+          <t>secondaryMaterialContent[0]__inorganic__secondaryInorganic__preConsumer__mechanicalRecycling__isMassBalanced</t>
         </is>
       </c>
       <c r="B20" s="8" t="inlineStr">
@@ -961,7 +961,7 @@
     <row r="21">
       <c r="A21" s="7" t="inlineStr">
         <is>
-          <t>secondaryMaterialContent[0]_inorganic_secondaryInorganic_preConsumer_chemicalRecycling_isMassBalanced</t>
+          <t>secondaryMaterialContent[0]__inorganic__secondaryInorganic__preConsumer__chemicalRecycling__isMassBalanced</t>
         </is>
       </c>
       <c r="B21" s="7" t="inlineStr">
@@ -974,7 +974,7 @@
     <row r="22">
       <c r="A22" s="8" t="inlineStr">
         <is>
-          <t>secondaryMaterialContent[0]_inorganic_secondaryInorganic_preConsumer_chemicalRecycling_percentageOfMaterialWeight</t>
+          <t>secondaryMaterialContent[0]__inorganic__secondaryInorganic__preConsumer__chemicalRecycling__percentageOfMaterialWeight</t>
         </is>
       </c>
       <c r="B22" s="8" t="inlineStr">
@@ -987,7 +987,7 @@
     <row r="23">
       <c r="A23" s="7" t="inlineStr">
         <is>
-          <t>secondaryMaterialContent[0]_inorganic_secondaryInorganic_postConsumer_mechanicalRecycling_percentageOfMaterialWeight</t>
+          <t>secondaryMaterialContent[0]__inorganic__secondaryInorganic__postConsumer__mechanicalRecycling__percentageOfMaterialWeight</t>
         </is>
       </c>
       <c r="B23" s="7" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="24">
       <c r="A24" s="8" t="inlineStr">
         <is>
-          <t>secondaryMaterialContent[0]_inorganic_secondaryInorganic_postConsumer_mechanicalRecycling_isMassBalanced</t>
+          <t>secondaryMaterialContent[0]__inorganic__secondaryInorganic__postConsumer__mechanicalRecycling__isMassBalanced</t>
         </is>
       </c>
       <c r="B24" s="8" t="inlineStr">
@@ -1013,7 +1013,7 @@
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
         <is>
-          <t>secondaryMaterialContent[0]_inorganic_secondaryInorganic_postConsumer_chemicalRecycling_isMassBalanced</t>
+          <t>secondaryMaterialContent[0]__inorganic__secondaryInorganic__postConsumer__chemicalRecycling__isMassBalanced</t>
         </is>
       </c>
       <c r="B25" s="7" t="inlineStr">
@@ -1026,7 +1026,7 @@
     <row r="26">
       <c r="A26" s="8" t="inlineStr">
         <is>
-          <t>secondaryMaterialContent[0]_inorganic_secondaryInorganic_postConsumer_chemicalRecycling_percentageOfMaterialWeight</t>
+          <t>secondaryMaterialContent[0]__inorganic__secondaryInorganic__postConsumer__chemicalRecycling__percentageOfMaterialWeight</t>
         </is>
       </c>
       <c r="B26" s="8" t="inlineStr">
@@ -1039,7 +1039,7 @@
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
         <is>
-          <t>secondaryMaterialContent[0]_inorganic_secondaryInorganic_postConsumerAutomotive_chemicalRecycling_isMassBalanced</t>
+          <t>secondaryMaterialContent[0]__inorganic__secondaryInorganic__postConsumerAutomotive__chemicalRecycling__isMassBalanced</t>
         </is>
       </c>
       <c r="B27" s="7" t="inlineStr">
@@ -1052,7 +1052,7 @@
     <row r="28">
       <c r="A28" s="8" t="inlineStr">
         <is>
-          <t>secondaryMaterialContent[0]_inorganic_secondaryInorganic_postConsumerAutomotive_chemicalRecycling_percentageOfMaterialWeight</t>
+          <t>secondaryMaterialContent[0]__inorganic__secondaryInorganic__postConsumerAutomotive__chemicalRecycling__percentageOfMaterialWeight</t>
         </is>
       </c>
       <c r="B28" s="8" t="inlineStr">
@@ -1065,7 +1065,7 @@
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
         <is>
-          <t>secondaryMaterialContent[0]_inorganic_secondaryInorganic_postConsumerAutomotive_mechanicalRecycling_percentageOfMaterialWeight</t>
+          <t>secondaryMaterialContent[0]__inorganic__secondaryInorganic__postConsumerAutomotive__mechanicalRecycling__percentageOfMaterialWeight</t>
         </is>
       </c>
       <c r="B29" s="7" t="inlineStr">
@@ -1078,7 +1078,7 @@
     <row r="30">
       <c r="A30" s="8" t="inlineStr">
         <is>
-          <t>secondaryMaterialContent[0]_inorganic_secondaryInorganic_postConsumerAutomotive_mechanicalRecycling_isMassBalanced</t>
+          <t>secondaryMaterialContent[0]__inorganic__secondaryInorganic__postConsumerAutomotive__mechanicalRecycling__isMassBalanced</t>
         </is>
       </c>
       <c r="B30" s="8" t="inlineStr">
@@ -1091,7 +1091,7 @@
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
         <is>
-          <t>secondaryMaterialContent[0]_inorganic_primaryInorganic_percentageOfMaterialWeight</t>
+          <t>secondaryMaterialContent[0]__inorganic__primaryInorganic__percentageOfMaterialWeight</t>
         </is>
       </c>
       <c r="B31" s="7" t="inlineStr">
@@ -1104,7 +1104,7 @@
     <row r="32">
       <c r="A32" s="8" t="inlineStr">
         <is>
-          <t>secondaryMaterialContent[0]_certificate[0]_certificateName</t>
+          <t>secondaryMaterialContent[0]__certificate[0]__certificateName</t>
         </is>
       </c>
       <c r="B32" s="8" t="inlineStr">
@@ -1117,7 +1117,7 @@
     <row r="33">
       <c r="A33" s="7" t="inlineStr">
         <is>
-          <t>secondaryMaterialContent[0]_certificate[0]_certificateLink</t>
+          <t>secondaryMaterialContent[0]__certificate[0]__certificateLink</t>
         </is>
       </c>
       <c r="B33" s="7" t="inlineStr">
@@ -1130,7 +1130,7 @@
     <row r="34">
       <c r="A34" s="8" t="inlineStr">
         <is>
-          <t>secondaryMaterialContent[0]_additionalInformation</t>
+          <t>secondaryMaterialContent[0]__additionalInformation</t>
         </is>
       </c>
       <c r="B34" s="8" t="inlineStr">

--- a/excel_reporting_templates/SecondaryMaterialContent-1.0.1-schema-reporting_template.xlsx
+++ b/excel_reporting_templates/SecondaryMaterialContent-1.0.1-schema-reporting_template.xlsx
@@ -484,7 +484,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="2.4" customWidth="1" min="1" max="1"/>
+    <col width="9.6" customWidth="1" min="1" max="1"/>
     <col width="21.6" customWidth="1" min="2" max="2"/>
     <col width="16.8" customWidth="1" min="3" max="3"/>
     <col width="50" customWidth="1" min="4" max="4"/>
@@ -520,7 +520,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>dtwin_id</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -745,7 +745,7 @@
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>dtwin_id</t>
         </is>
       </c>
       <c r="B5" s="7" t="inlineStr">
